--- a/biology/Médecine/Pseudomyxome_des_cordes_vocales/Pseudomyxome_des_cordes_vocales.xlsx
+++ b/biology/Médecine/Pseudomyxome_des_cordes_vocales/Pseudomyxome_des_cordes_vocales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pseudomyxome des cordes vocales ou œdème des cordes vocales ou œdème de Reinke est une laryngite chronique caractérisée par une accumulation de mucus au niveau des cordes vocales et du larynx[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pseudomyxome des cordes vocales ou œdème des cordes vocales ou œdème de Reinke est une laryngite chronique caractérisée par une accumulation de mucus au niveau des cordes vocales et du larynx.
 Cette affection est bénigne et n'évolue en cancer que dans 2 ou 3 % des cas.
 </t>
         </is>
